--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9596677967839349</v>
+        <v>0.9996522143560749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.826112947306757</v>
+        <v>0.7171114179185605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.90403039483661</v>
+        <v>0.9985142950937516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9140750147224158</v>
+        <v>0.9997146423847981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9195427403725972</v>
+        <v>0.9990261338842965</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2697016286185473</v>
+        <v>0.0002064605817915382</v>
       </c>
       <c r="H2" t="n">
-        <v>1.162783522035971</v>
+        <v>0.1679348824739952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4730753043161181</v>
+        <v>0.001129771548366257</v>
       </c>
       <c r="J2" t="n">
-        <v>1.037639216986118</v>
+        <v>0.000160607086797549</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7553572606511181</v>
+        <v>0.0006451893175819028</v>
       </c>
       <c r="L2" t="n">
-        <v>1.300573272754894</v>
+        <v>0.004152929963657378</v>
       </c>
       <c r="M2" t="n">
-        <v>0.519328054911871</v>
+        <v>0.01436873626285688</v>
       </c>
       <c r="N2" t="n">
-        <v>1.023609094565502</v>
+        <v>1.000203581840347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5414369253667457</v>
+        <v>0.01498044311295122</v>
       </c>
       <c r="P2" t="n">
-        <v>132.6208780204491</v>
+        <v>146.970802101985</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.8478066368822</v>
+        <v>226.1977307184181</v>
       </c>
     </row>
     <row r="3">
@@ -577,327 +577,327 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9603656717743317</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8260731093329361</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9094736129107824</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.917668860637504</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9232831184717684</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2650349353443445</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H3" t="n">
-        <v>1.163049918750349</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4462433501519419</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9942395533230554</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7202414517374987</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L3" t="n">
-        <v>1.361121360744514</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5148154381371488</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023200582376001</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5367321971535189</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P3" t="n">
-        <v>132.6557872603937</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.8827158768267</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9589262461090966</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8260293717816769</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8989689163796076</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9108208304821948</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9161210326154561</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2746603813957175</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H4" t="n">
-        <v>1.163342391957011</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4980255003418205</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J4" t="n">
-        <v>1.076937090311823</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K4" t="n">
-        <v>0.787481295326822</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L4" t="n">
-        <v>1.245950145721968</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5240805104139225</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N4" t="n">
-        <v>1.024043173009309</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5463917027384586</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P4" t="n">
-        <v>132.5844398425412</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.8113684589743</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9609833334982226</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8258612323245982</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9152968646894903</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9216282339406086</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9273583544957335</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2609046285526154</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H5" t="n">
-        <v>1.164466741280708</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4175380470236083</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9464257422328725</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6819818946282403</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L5" t="n">
-        <v>1.428213673021439</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5107882423789877</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022839024293723</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5325335553344884</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P5" t="n">
-        <v>132.6872006925631</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.9141293089961</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9581676967545596</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258592624406632</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8942805534075855</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9078790352084347</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9129981907642921</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.279732804422305</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H6" t="n">
-        <v>1.164479913903652</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5211364502718292</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J6" t="n">
-        <v>1.112462521413575</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8167994858427022</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L6" t="n">
-        <v>1.196694202006718</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5288977258622928</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02448720189977</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5514139970214768</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P6" t="n">
-        <v>132.5478408026773</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.7747694191103</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.957411772665861</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8256306852391285</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8899544359234475</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9052225729227866</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9101539601646337</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2847876722841428</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H7" t="n">
-        <v>1.166008410702815</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5424617369793397</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J7" t="n">
-        <v>1.14454224114967</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8435019890645048</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L7" t="n">
-        <v>1.15228811550318</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5336550124229537</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N7" t="n">
-        <v>1.024929694049252</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5563738111199656</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P7" t="n">
-        <v>132.5120227718006</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.7389513882337</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9614723991109351</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8254137491955147</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9214929257559084</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9259758480076755</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9317811598389455</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2576342445484669</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H8" t="n">
-        <v>1.16745906302536</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3869950071771226</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8939234945835368</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6404592508803297</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L8" t="n">
-        <v>1.502501292654418</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5075768361031332</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N8" t="n">
-        <v>1.022552741983843</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5291854328449433</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P8" t="n">
-        <v>132.712428713351</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.9393573297841</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="9">
@@ -907,932 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9566725384119518</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8253647778631549</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8859753209653753</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9028256987390784</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9075677813503755</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2897309351438944</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H9" t="n">
-        <v>1.167786534550342</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5620764995543648</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J9" t="n">
-        <v>1.173487147490505</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8677818235224348</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L9" t="n">
-        <v>1.112274036529862</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5382666022928549</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N9" t="n">
-        <v>1.025362416539345</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5611817259179357</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P9" t="n">
-        <v>132.4776051930644</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.7045338094975</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9559598793276306</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825077351278402</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.882325201934808</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9006645959666333</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9052196094287916</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2944964897222438</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H10" t="n">
-        <v>1.169708557446062</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5800695002365684</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J10" t="n">
-        <v>1.19958485331358</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8898271767750743</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L10" t="n">
-        <v>1.076216637067507</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5426753078243416</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N10" t="n">
-        <v>1.025779582832606</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5657781191711763</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P10" t="n">
-        <v>132.4449763908212</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.6719050072543</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9552802302406662</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8247801921900914</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8789848769866584</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8987165424395485</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9030897896582577</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2990413062962706</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H11" t="n">
-        <v>1.171695661637888</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5965353931478734</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J11" t="n">
-        <v>1.223109753899378</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9098225735236256</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L11" t="n">
-        <v>1.043737982029603</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M11" t="n">
-        <v>0.546846693595445</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N11" t="n">
-        <v>1.026177426200586</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5701270894705146</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P11" t="n">
-        <v>132.4143471339699</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.641275750403</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9617683041372435</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8246478951826903</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9280444009926104</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9307266580318504</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9365565861327833</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2556555262750252</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H12" t="n">
-        <v>1.17258033233555</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3546999785996299</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8365522098796838</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K12" t="n">
-        <v>0.595626094239657</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L12" t="n">
-        <v>1.584719807174023</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5056238980457958</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N12" t="n">
-        <v>1.022379529285516</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O12" t="n">
-        <v>0.527149354171366</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P12" t="n">
-        <v>132.7278486822481</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.9547772986811</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_20</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9546377726482281</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244818902698304</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8759347348559586</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8969611156414683</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9011600388230219</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3033374231751492</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H13" t="n">
-        <v>1.173690407952227</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6115708506162203</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J13" t="n">
-        <v>1.244308473717041</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9279396621666308</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L13" t="n">
-        <v>1.014481189901198</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5507607676434018</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N13" t="n">
-        <v>1.026553498937623</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O13" t="n">
-        <v>0.574207793753943</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P13" t="n">
-        <v>132.3858189704705</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.6127475869035</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_21</t>
+          <t>model_6_5_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9540346126475797</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8241886364104276</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8731537909926606</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E14" t="n">
-        <v>0.89537956246859</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8994127868548432</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3073707568767819</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H14" t="n">
-        <v>1.175651397860362</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6252793144801271</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J14" t="n">
-        <v>1.263407477233025</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9443433958565761</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9881376100444758</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5544102784732458</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N14" t="n">
-        <v>1.026906568206295</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5780126718153424</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P14" t="n">
-        <v>132.3594011658546</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.5863297822876</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_22</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9534717619237203</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8239047739260317</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8706226325984202</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8939551915604065</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8978322023203708</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3111345422589187</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H15" t="n">
-        <v>1.177549587600585</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6377564787405084</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J15" t="n">
-        <v>1.280608331083516</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9591824049120123</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9644124830352712</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5577943548109094</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N15" t="n">
-        <v>1.027236041800749</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5815408152887043</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P15" t="n">
-        <v>132.3350596971748</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.5619883136078</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_23</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9529489552720103</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8236332293162362</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8683216509895761</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8926722891434349</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8964030310918576</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3146305527462073</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H16" t="n">
-        <v>1.179365407656635</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6490990030009389</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J16" t="n">
-        <v>1.296100796460328</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9725998997306333</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9430465372427613</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5609193816817237</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N16" t="n">
-        <v>1.027542074962726</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5847988810231065</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P16" t="n">
-        <v>132.3127123538124</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.5396409702455</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.96178599673345</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8234563677520166</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9349234154387889</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9358827548457044</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9416786600671093</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2555372158027253</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H17" t="n">
-        <v>1.180548081750945</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3207903689166441</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7742866390058789</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5475385039612615</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L17" t="n">
-        <v>1.675636428480754</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5055068899656316</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N17" t="n">
-        <v>1.022369172643834</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5270273648149892</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P17" t="n">
-        <v>132.728774442453</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.955703058886</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9614131919761882</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8217008393556777</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9420896523725745</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9414241667332316</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9471239525473264</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2580301629311432</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H18" t="n">
-        <v>1.192287308220727</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2854649165249184</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7073679625185254</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K18" t="n">
-        <v>0.496416439521722</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L18" t="n">
-        <v>1.776112248291723</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5079666947065951</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.022587399818817</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5295918885362733</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P18" t="n">
-        <v>132.7093575806164</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.9362861970494</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9605030581336751</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8192043304336767</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9494910753923967</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9472981737140042</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9528448957844955</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2641162321268092</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H19" t="n">
-        <v>1.208981474877515</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2489801311440315</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6364328324814421</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4427064818127368</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L19" t="n">
-        <v>1.887069158692551</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5139223989347119</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N19" t="n">
-        <v>1.023120161092483</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5358011394233885</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P19" t="n">
-        <v>132.66273199904</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.8896606154731</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_5</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9588634925007157</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.815742250497686</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9570590398526992</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9534047889351945</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9587591623108697</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2750800150639148</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H20" t="n">
-        <v>1.232132419350897</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2116743916443659</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5626887007125362</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K20" t="n">
-        <v>0.387181546178451</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L20" t="n">
-        <v>2.009557680511685</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5244807099063937</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N20" t="n">
-        <v>1.024079906828849</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5468089395518515</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P20" t="n">
-        <v>132.5813865195371</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.8083151359702</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9562451654133353</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8110317709065338</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.964705514962694</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9595800684986295</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9647382014745136</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2925887803535151</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H21" t="n">
-        <v>1.263631418066696</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I21" t="n">
-        <v>0.173981639512608</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4881153710788724</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3310485052957403</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L21" t="n">
-        <v>2.144795066439116</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5409147625583121</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N21" t="n">
-        <v>1.025612586099511</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5639426238483408</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P21" t="n">
-        <v>132.4579742715755</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.6849028880086</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9523260773301722</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8047193857340624</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9723099539327127</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9655805094030682</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9705937580501891</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3187957404113682</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H22" t="n">
-        <v>1.305842366780873</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1364961015261775</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4156534115971348</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2760747565616561</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L22" t="n">
-        <v>2.294270073688782</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5646199964678618</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N22" t="n">
-        <v>1.027906686440875</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5886570386420191</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P22" t="n">
-        <v>132.2864093869495</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.5133380033826</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.946694043528479</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7963649687295392</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9797022429991403</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9710692506113945</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9760645211101655</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3564571763764215</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H23" t="n">
-        <v>1.361708391758673</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1000563413152332</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3493707918067661</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2247135665609996</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L23" t="n">
-        <v>2.459887391076622</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5970403473605629</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N23" t="n">
-        <v>1.031203486715037</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6224575909916007</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P23" t="n">
-        <v>132.0630823374187</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.2900109538517</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9388258758711717</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7854226633255177</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9866314810967698</v>
+        <v>0.9985142706773156</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9756080602976401</v>
+        <v>0.9997146321814349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9808027743708068</v>
+        <v>0.9990261155374591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4090716497304159</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H24" t="n">
-        <v>1.434879638380048</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06589915773472388</v>
+        <v>0.001129790115306845</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2945596456230301</v>
+        <v>0.0001606128295300284</v>
       </c>
       <c r="K24" t="n">
-        <v>0.180229401678877</v>
+        <v>0.0006452014724184367</v>
       </c>
       <c r="L24" t="n">
-        <v>2.644159755404621</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6395870931549634</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N24" t="n">
-        <v>1.035809243392485</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6668156398383746</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P24" t="n">
-        <v>131.7877299111342</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.0146585275672</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>model_6_5_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9996522175149166</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7171112478661461</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9985143057649377</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.999714648791812</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9990261442727412</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0002064587065666114</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1679349834244543</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.001129763433697972</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.000160603480754473</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0006451824352051113</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.004152925797900966</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01436867100906035</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.000203579991268</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01498037508116548</v>
+      </c>
+      <c r="P25" t="n">
+        <v>146.9708202675199</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>226.1977488839529</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_6_5_0</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.9280626618750708</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7712187762368143</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.992717264097587</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9786552787198183</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9843602837965005</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4810453112823863</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.529861096745094</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.03589972572485115</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2577611134224148</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1468304195736329</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.850387410006976</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.6935743011980665</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.042109661341422</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.7231011950967996</v>
-      </c>
-      <c r="P25" t="n">
-        <v>131.4635876221257</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>210.6905162385587</v>
+      <c r="B26" t="n">
+        <v>0.9994675701239188</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7114044453023715</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9989670211470576</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.999991892821311</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9994037243402121</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0003160733742148224</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1713227879473456</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0007855060000207063</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.562942364379287e-06</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0003950344711925428</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.004994505424750857</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01777845252587588</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.000311666268926</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01853531805637265</v>
+      </c>
+      <c r="P26" t="n">
+        <v>146.1190723488971</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>225.3460009653301</v>
       </c>
     </row>
   </sheetData>
